--- a/data_year/zb/国民经济核算/三次产业构成.xlsx
+++ b/data_year/zb/国民经济核算/三次产业构成.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,400 +458,248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6762416553</v>
+        <v>9.3251769405</v>
       </c>
       <c r="D2" t="n">
-        <v>39.7876551668</v>
+        <v>44.1769919214</v>
       </c>
       <c r="E2" t="n">
-        <v>45.5361031778</v>
+        <v>46.4978311381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>13.9834613524</v>
+        <v>9.177653795399999</v>
       </c>
       <c r="D3" t="n">
-        <v>41.2231263086</v>
+        <v>44.2930567346</v>
       </c>
       <c r="E3" t="n">
-        <v>44.7934123391</v>
+        <v>46.52928947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>13.3014877129</v>
+        <v>9.1137138703</v>
       </c>
       <c r="D4" t="n">
-        <v>42.2479447539</v>
+        <v>45.4633053876</v>
       </c>
       <c r="E4" t="n">
-        <v>44.4505675332</v>
+        <v>45.4229807421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3489989654</v>
+        <v>8.942893962299999</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0282161857</v>
+        <v>46.8804015014</v>
       </c>
       <c r="E5" t="n">
-        <v>45.622784849</v>
+        <v>44.1767045363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>12.916648167</v>
+        <v>8.6434913962</v>
       </c>
       <c r="D6" t="n">
-        <v>41.1831401664</v>
+        <v>48.2709404943</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9002116666</v>
+        <v>43.0855681094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>11.6414956027</v>
+        <v>8.387014882100001</v>
       </c>
       <c r="D7" t="n">
-        <v>41.3359259169</v>
+        <v>50.7716451484</v>
       </c>
       <c r="E7" t="n">
-        <v>47.0225784804</v>
+        <v>40.8413399694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>10.6257605278</v>
+        <v>8.0572875347</v>
       </c>
       <c r="D8" t="n">
-        <v>41.8168419071</v>
+        <v>52.3620909629</v>
       </c>
       <c r="E8" t="n">
-        <v>47.5573975652</v>
+        <v>39.5806215024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>10.2461657564</v>
+        <v>7.4635650166</v>
       </c>
       <c r="D9" t="n">
-        <v>42.8696650094</v>
+        <v>52.6847365342</v>
       </c>
       <c r="E9" t="n">
-        <v>46.8841692341</v>
+        <v>39.8516984492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>10.1690478479</v>
+        <v>7.0430202532</v>
       </c>
       <c r="D10" t="n">
-        <v>42.8597797909</v>
+        <v>53.2699679234</v>
       </c>
       <c r="E10" t="n">
-        <v>46.9711723612</v>
+        <v>39.6870118234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>9.636185514399999</v>
+        <v>7.14369027759977</v>
       </c>
       <c r="D11" t="n">
-        <v>44.4066671995</v>
+        <v>54.268904266364</v>
       </c>
       <c r="E11" t="n">
-        <v>45.9571472862</v>
+        <v>38.5874054560362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>9.3251769405</v>
+        <v>7.69864253413716</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1769919214</v>
+        <v>54.4585357459341</v>
       </c>
       <c r="E12" t="n">
-        <v>46.4978311381</v>
+        <v>37.8428217199287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>9.177653795399999</v>
+        <v>7.2</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2930567346</v>
+        <v>53.5</v>
       </c>
       <c r="E13" t="n">
-        <v>46.52928947</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>9.1137138703</v>
+        <v>7.3</v>
       </c>
       <c r="D14" t="n">
-        <v>45.4633053876</v>
+        <v>52.8</v>
       </c>
       <c r="E14" t="n">
-        <v>45.4229807421</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8.942893962299999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>46.8804015014</v>
-      </c>
-      <c r="E15" t="n">
-        <v>44.1767045363</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8.6434913962</v>
-      </c>
-      <c r="D16" t="n">
-        <v>48.2709404943</v>
-      </c>
-      <c r="E16" t="n">
-        <v>43.0855681094</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.387014882100001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50.7716451484</v>
-      </c>
-      <c r="E17" t="n">
-        <v>40.8413399694</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.0572875347</v>
-      </c>
-      <c r="D18" t="n">
-        <v>52.3620909629</v>
-      </c>
-      <c r="E18" t="n">
-        <v>39.5806215024</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.4635650166</v>
-      </c>
-      <c r="D19" t="n">
-        <v>52.6847365342</v>
-      </c>
-      <c r="E19" t="n">
-        <v>39.8516984492</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7.0430202532</v>
-      </c>
-      <c r="D20" t="n">
-        <v>53.2699679234</v>
-      </c>
-      <c r="E20" t="n">
-        <v>39.6870118234</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7.14369027759977</v>
-      </c>
-      <c r="D21" t="n">
-        <v>54.268904266364</v>
-      </c>
-      <c r="E21" t="n">
-        <v>38.5874054560362</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>37.8</v>
+        <v>39.9</v>
       </c>
     </row>
   </sheetData>
